--- a/prodotti.xlsx
+++ b/prodotti.xlsx
@@ -5,27 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmont\Desktop\Development\PrivateRepo\burgerpizzatemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmont\Desktop\Development\PrivateRepo\burger-pizza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CB35AC-29D6-4BCA-B6C7-A787983AB688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAD2085-F612-4286-8566-7FE0ACD21F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5475" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antipasti" sheetId="1" r:id="rId1"/>
-    <sheet name="Impasti" sheetId="6" r:id="rId2"/>
-    <sheet name="Pizze" sheetId="2" r:id="rId3"/>
-    <sheet name="Hamburger" sheetId="3" r:id="rId4"/>
-    <sheet name="Bibite" sheetId="4" r:id="rId5"/>
-    <sheet name="Dolci" sheetId="5" r:id="rId6"/>
+    <sheet name="Aperitivi" sheetId="7" r:id="rId2"/>
+    <sheet name="Impasti" sheetId="6" r:id="rId3"/>
+    <sheet name="Pizze Classiche" sheetId="2" r:id="rId4"/>
+    <sheet name="Pizze con Bufala" sheetId="11" r:id="rId5"/>
+    <sheet name="Pizze Gourmet" sheetId="12" r:id="rId6"/>
+    <sheet name="Calzoni" sheetId="10" r:id="rId7"/>
+    <sheet name="Hamburger" sheetId="3" r:id="rId8"/>
+    <sheet name="Secondi" sheetId="8" r:id="rId9"/>
+    <sheet name="Dolci" sheetId="5" r:id="rId10"/>
+    <sheet name="Bibite" sheetId="4" r:id="rId11"/>
+    <sheet name="Birre alla Spina" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="340">
   <si>
     <t>Nome</t>
   </si>
@@ -42,24 +48,6 @@
     <t>Diavola</t>
   </si>
   <si>
-    <t>Coca Cola</t>
-  </si>
-  <si>
-    <t>Bibita gassata classica</t>
-  </si>
-  <si>
-    <t>Acqua Naturale</t>
-  </si>
-  <si>
-    <t>Bottiglia da 50cl</t>
-  </si>
-  <si>
-    <t>Cannolo Siciliano</t>
-  </si>
-  <si>
-    <t>Ricotta dolce e scorza d’arancia candita</t>
-  </si>
-  <si>
     <t>Greta</t>
   </si>
   <si>
@@ -124,48 +112,6 @@
   </si>
   <si>
     <t>Patatine classiche</t>
-  </si>
-  <si>
-    <t>Misto di frittura siciliana a fantasia dello chef</t>
-  </si>
-  <si>
-    <t>Patatine,panelle,crocchè,arancinette</t>
-  </si>
-  <si>
-    <t>patatina,bacon croccante,salsa cheddar</t>
-  </si>
-  <si>
-    <t>Patatine, mortadella,pesto di pistacchio</t>
-  </si>
-  <si>
-    <t>Patatine, porchetta, fonduta di formaggi misti</t>
-  </si>
-  <si>
-    <t>Patatine, salsiccia, fonduta di formaggi misti</t>
-  </si>
-  <si>
-    <t>Prosciutto crudo, speck, cipolla scalogno</t>
-  </si>
-  <si>
-    <t>Pan pizza,bruschetta classica</t>
-  </si>
-  <si>
-    <t>Pan pizza con crema alle erbe, tartare di salmone, pomodorino, menta</t>
-  </si>
-  <si>
-    <t>Primosale, acciughe, cipolla, ricotta, pangrattato, caciocavallo, origano, olio evo</t>
-  </si>
-  <si>
-    <t>Ragù di cipolla, acciughe, pangrattato, caciocavallo, origano, olio evo</t>
-  </si>
-  <si>
-    <t>Crocchè di patata fresca ripiena di mozzarella, gorgonzola, speck, fonduta di formaggi</t>
-  </si>
-  <si>
-    <t>10pz Crocchette di pollo</t>
-  </si>
-  <si>
-    <t>4 pz Arancinette con riso, ragù di carne</t>
   </si>
   <si>
     <t>bruschettone.jpg</t>
@@ -427,6 +373,722 @@
     <t>Mozzarella fior di latte, mortadella, bufala stracciata, pesto di pistacchio, granella di pistacchio</t>
   </si>
   <si>
+    <t>Bordo ripieno di ricotta e salsiccia, mozzarella di bufala D.O.P., friarielli, salsiccia, grana</t>
+  </si>
+  <si>
+    <t>Pomodoro a fette condito, mozzarella fior di latte, speck, ricotta, granella di pistacchio, grana</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, brie, speck, noci, miele</t>
+  </si>
+  <si>
+    <t>Bordo ripieno di ricotta e grana, mozzarella fior di latte, funghi, pomodorini, prosciutto crudo di Parma, grana</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, carciofi spinosi D.O.P., bignè di philadelphia, noci, grana</t>
+  </si>
+  <si>
+    <t>Bordo ripieno di philadelphia e pistacchio, mozzarella fior di latte, mortadella, pesto e granella di pistacchio, burrata</t>
+  </si>
+  <si>
+    <t>Scegli il condimento della pizza e dell'hamburger</t>
+  </si>
+  <si>
+    <t>Bordo ripieno con crema di pistacchio e philadelphia, mozzarella fior di latte, bresaola, bufala, pomodori secchi, granella di pistacchio</t>
+  </si>
+  <si>
+    <t>marinara.jpg</t>
+  </si>
+  <si>
+    <t>napoli.jpg</t>
+  </si>
+  <si>
+    <t>biancaneve.jpg</t>
+  </si>
+  <si>
+    <t>romana.jpg</t>
+  </si>
+  <si>
+    <t>capricciosa.jpg</t>
+  </si>
+  <si>
+    <t>diavola.jpg</t>
+  </si>
+  <si>
+    <t>sfiziosa.jpg</t>
+  </si>
+  <si>
+    <t>parmigiana.jpg</t>
+  </si>
+  <si>
+    <t>tonnara.jpg</t>
+  </si>
+  <si>
+    <t>vegetariana.jpg</t>
+  </si>
+  <si>
+    <t>schiacciata.jpg</t>
+  </si>
+  <si>
+    <t>porchettona.jpg</t>
+  </si>
+  <si>
+    <t>bresaolina.jpg</t>
+  </si>
+  <si>
+    <t>4_gusti.jpg</t>
+  </si>
+  <si>
+    <t>4_formaggi.jpg</t>
+  </si>
+  <si>
+    <t>la_sicula.jpg</t>
+  </si>
+  <si>
+    <t>american_chips.jpg</t>
+  </si>
+  <si>
+    <t>chicken_pizza.jpg</t>
+  </si>
+  <si>
+    <t>la_nazareno.jpg</t>
+  </si>
+  <si>
+    <t>la_parma.jpg</t>
+  </si>
+  <si>
+    <t>salsiccia_e_friarielli.jpg</t>
+  </si>
+  <si>
+    <t>brie_e_Noci.jpg</t>
+  </si>
+  <si>
+    <t>porcina.jpg</t>
+  </si>
+  <si>
+    <t>chloe.jpg</t>
+  </si>
+  <si>
+    <t>greta.jpg</t>
+  </si>
+  <si>
+    <t>deliziosa.jpg</t>
+  </si>
+  <si>
+    <t>la_solita.jpg</t>
+  </si>
+  <si>
+    <t>burrata_e_lime.jpg</t>
+  </si>
+  <si>
+    <t>4_spicchi.jpg</t>
+  </si>
+  <si>
+    <t>norvegese.jpg</t>
+  </si>
+  <si>
+    <t>pistacchiosa.jpg</t>
+  </si>
+  <si>
+    <t>gigi.jpg</t>
+  </si>
+  <si>
+    <t>quadrotta.jpg</t>
+  </si>
+  <si>
+    <t>sandra.jpg</t>
+  </si>
+  <si>
+    <t>marlena.jpg</t>
+  </si>
+  <si>
+    <t>bouquet.jpg</t>
+  </si>
+  <si>
+    <t>la_regina.jpg</t>
+  </si>
+  <si>
+    <t>duchessa.jpg</t>
+  </si>
+  <si>
+    <t>burger_pizza.jpg</t>
+  </si>
+  <si>
+    <t>bignè.jpg</t>
+  </si>
+  <si>
+    <t>Gigi Burger</t>
+  </si>
+  <si>
+    <t>Box Burger</t>
+  </si>
+  <si>
+    <t>Burger Bacon</t>
+  </si>
+  <si>
+    <t>Porchettone</t>
+  </si>
+  <si>
+    <t>Chicken Burger</t>
+  </si>
+  <si>
+    <t>Burger Pizza</t>
+  </si>
+  <si>
+    <t>Scotta Burger</t>
+  </si>
+  <si>
+    <t>Vegan Burger</t>
+  </si>
+  <si>
+    <t>Porchi Burger</t>
+  </si>
+  <si>
+    <t>Burger Pig</t>
+  </si>
+  <si>
+    <t>Salmone</t>
+  </si>
+  <si>
+    <t>Cheese Burger</t>
+  </si>
+  <si>
+    <t>Double Cheese Burger</t>
+  </si>
+  <si>
+    <t>gigi_burger.jpg</t>
+  </si>
+  <si>
+    <t>box_burger.jpg</t>
+  </si>
+  <si>
+    <t>burger_bacon.jpg</t>
+  </si>
+  <si>
+    <t>porchettone.jpg</t>
+  </si>
+  <si>
+    <t>chicken_burger.jpg</t>
+  </si>
+  <si>
+    <t>scotta_burger.jpg</t>
+  </si>
+  <si>
+    <t>vegan_burger.jpg</t>
+  </si>
+  <si>
+    <t>porchi_burger.jpg</t>
+  </si>
+  <si>
+    <t>burger_pig.jpg</t>
+  </si>
+  <si>
+    <t>salmone.jpg</t>
+  </si>
+  <si>
+    <t>cheese_burger.jpg</t>
+  </si>
+  <si>
+    <t>double_cheese_burger.jpg</t>
+  </si>
+  <si>
+    <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, prosciutto cotto scelto, carciofi, funghi, salame piccante, olive, wurstel, olio evo</t>
+  </si>
+  <si>
+    <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, prosciutto cotto scelto</t>
+  </si>
+  <si>
+    <t>Pomodoro san marzano D.O.P., acciughe, olio evo, basilico</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>11.50</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>Impasto preparato con farina di kamut, dal gusto delicato e facilmente digeribile</t>
+  </si>
+  <si>
+    <t>Grano antico 100% italiano, dal sapore intenso e ricco di nutrienti. Gusto deciso e alta digeribilità</t>
+  </si>
+  <si>
+    <t>Impasto a lunga lievitazione secondo il disciplinare STG: soffice, leggero e dal cornicione alto</t>
+  </si>
+  <si>
+    <t>Impasto senza glutine, fragrante e leggero, senza rinunciare al gusto della pizza tradizionale</t>
+  </si>
+  <si>
+    <t>Birra dello stretto</t>
+  </si>
+  <si>
+    <t>33 cl</t>
+  </si>
+  <si>
+    <t>Raffo lavorazione grezza</t>
+  </si>
+  <si>
+    <t>Alhambra doppio malto</t>
+  </si>
+  <si>
+    <t>Tennen's</t>
+  </si>
+  <si>
+    <t>San miguel</t>
+  </si>
+  <si>
+    <t>Gluten free</t>
+  </si>
+  <si>
+    <t>Peroni</t>
+  </si>
+  <si>
+    <t>Daura</t>
+  </si>
+  <si>
+    <t>Paulaner weisse</t>
+  </si>
+  <si>
+    <t>Ichnusa non filtrata</t>
+  </si>
+  <si>
+    <t>Messina cristalli di sale</t>
+  </si>
+  <si>
+    <t>Heineken</t>
+  </si>
+  <si>
+    <t>Beck's</t>
+  </si>
+  <si>
+    <t>Moretti</t>
+  </si>
+  <si>
+    <t>Moretti rossa</t>
+  </si>
+  <si>
+    <t>Ceres</t>
+  </si>
+  <si>
+    <t>Acqua naturale</t>
+  </si>
+  <si>
+    <t>1 l</t>
+  </si>
+  <si>
+    <t>Acqua frizzante</t>
+  </si>
+  <si>
+    <t>50 cl</t>
+  </si>
+  <si>
+    <t>Coca-cola</t>
+  </si>
+  <si>
+    <t>Coca-cola zero</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Fanta</t>
+  </si>
+  <si>
+    <t>Chinotto</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>San Biagio Monasta</t>
+  </si>
+  <si>
+    <t>Vocation Heart&amp;Soul Gluten free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vocation Heart&amp;Soul </t>
+  </si>
+  <si>
+    <t>Tortino cuore caldo</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>tortino_cuore_caldo.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flauto </t>
+  </si>
+  <si>
+    <t>flauto.jpg</t>
+  </si>
+  <si>
+    <t>Zeppola</t>
+  </si>
+  <si>
+    <t>zeppola.jpg</t>
+  </si>
+  <si>
+    <t>Dolce dal cuore morbido e fondente, servito caldo</t>
+  </si>
+  <si>
+    <t>Pasta soffice farcita con nutella e ricoperta da croccante granella di pistacchio</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Pollo panato fritto con contorno</t>
+  </si>
+  <si>
+    <t>Pollo panato alla griglia con contorno</t>
+  </si>
+  <si>
+    <t>Spiedini al pistacchio con contorno</t>
+  </si>
+  <si>
+    <t>Spiedini siciliani con contorno</t>
+  </si>
+  <si>
+    <t>Tagliere di carne</t>
+  </si>
+  <si>
+    <t>Tagliata di scottona - Rucola, funghi e grana</t>
+  </si>
+  <si>
+    <t>Arrosto di scottona 500 gr con contorno</t>
+  </si>
+  <si>
+    <t>Salsiccia con contorno</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>pollo_panato_fritto.jpg</t>
+  </si>
+  <si>
+    <t>pollo_panato_alla_griglia.jpg</t>
+  </si>
+  <si>
+    <t>spiedini_al_pistacchio.jpg</t>
+  </si>
+  <si>
+    <t>spiedini_siciliani.jpg</t>
+  </si>
+  <si>
+    <t>tagliere_di_carne.jpg</t>
+  </si>
+  <si>
+    <t>tagliata_di_scottona.jpg</t>
+  </si>
+  <si>
+    <t>arrosto_di_scottona.jpg</t>
+  </si>
+  <si>
+    <t>salsiccia.jpg</t>
+  </si>
+  <si>
+    <t>Aperitivo siciliano</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>aperitivo_siciliano.jpg</t>
+  </si>
+  <si>
+    <t>AperiBurger</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>aperiburger.jpg</t>
+  </si>
+  <si>
+    <t>AperiPorchetta</t>
+  </si>
+  <si>
+    <t>aperiPorchetta.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amber Ale 7%, 30 cl, non filtrata, non pastorizzata, rifermentata in bottiglia.Birra monastica per eccellenza, creata seguendo l'antico metodo di produzione brassicola ed ispirata alla scuola belga delle Strong Ale. Il color nocciola, leggermente velato con riflessi rossastri e la schiuma abbondante e persistente. Sentori di miele e alloro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Session IPA 4.4% 30 cl. Session Ipa luppolata in stile West Coast. Al naso quanto al palato sono evidenti le note di frutta tropicale, sui toni di mango e ananas, accanto a sentori di pesca e alla piacevole componente citrica. Sul finale una nota amara rende la bevuta pulita e dissetante</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Session IPA 4.4% 30 cl. Session Ipa luppolata in stile West Coast. Al naso quanto al palato sono evidenti le note di frutta tropicale, sui toni di mango e ananas, accanto a sentori di pesca e alla piacevole componente citrica. Sul finale una nota amara re</t>
+    </r>
+  </si>
+  <si>
+    <t>Parfait di mandorle</t>
+  </si>
+  <si>
+    <t>Classico</t>
+  </si>
+  <si>
+    <t>Priolino</t>
+  </si>
+  <si>
+    <t>Appetitoso</t>
+  </si>
+  <si>
+    <t>Goloso</t>
+  </si>
+  <si>
+    <t>Sempliciotto</t>
+  </si>
+  <si>
+    <t>Parigino</t>
+  </si>
+  <si>
+    <t>Fagottino</t>
+  </si>
+  <si>
+    <t>Pizza cannolo</t>
+  </si>
+  <si>
+    <t>Panino greco</t>
+  </si>
+  <si>
+    <t>classico.jpg</t>
+  </si>
+  <si>
+    <t>priolino.jpg</t>
+  </si>
+  <si>
+    <t>appetitoso.jpg</t>
+  </si>
+  <si>
+    <t>goloso.jpg</t>
+  </si>
+  <si>
+    <t>sempliciotto.jpg</t>
+  </si>
+  <si>
+    <t>parigino.jpg</t>
+  </si>
+  <si>
+    <t>fagottino.jpg</t>
+  </si>
+  <si>
+    <t>pizza_cannolo.jpg</t>
+  </si>
+  <si>
+    <t>panino_greco.jpg</t>
+  </si>
+  <si>
+    <t>Pomodoro San Marzano D.O.P., mozzarella fior di latte, prosciutto cotto scelto</t>
+  </si>
+  <si>
+    <t>Pomodoro San Marzano D.O.P., mozzarella fior di latte, bacon, melenzane fritte, mascarpone ai funghi porcini, gorgonzola, grana</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, friarielli, salsiccia, salame piccante, gorgonzola, emmental</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, speck, scamorza affumicata, patatine fritte, salsa rosa</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, bacon, funghi, grana</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, friarielli, scamorza affumicata, rucola, speck, pomodorini, bufala stracciata, grana</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, funghi, salsiccia, scamorza affumicata, fonduta di formaggi</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, mortadella, bufala stracciata, pesto di pistacchio, rucola, prosciutto crudo di Parma, scaglie di grana</t>
+  </si>
+  <si>
+    <r>
+      <t>Un appetitoso mix di antipasti a base di tradizione siciliana in cui troverete: panelle e crocchè, arancinette ripiene alla carne, 2 focaccine con ricotta e grana, 2 focaccine mortadella bufala e pistacchio, patabacon, patapig, nuggets fatti in casa.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Consigliato per 4 persone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Gluten free)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Un antipasto perfetto per gli insaziabili nel quale troverete: patapig, pataporchetta, arancinette, nuggets, panelle e crocchè, 4 montanarine, 4 mini burger, 4 calzoncini. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Consigliato per 4 persone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Gluten free)</t>
+    </r>
+  </si>
+  <si>
+    <t>Un antipasto ideale per chi ama il gusto della porchetta in cui troverete: pataporchetta, patasalsiccia, arancinette, nuggets, panelle e crocchè, 4 mini burger con porchetta, pizza 4 formaggi (Gluten free)</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di vitello 200gr, pomodoro, cipolla caramellata, lattuga, porhcetta artigianale, emmental, fonduta di formaggi. Contorno patate fritte</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di vitello 150gr, bacon croccante, cheddar, cipolla caramellata, salsa bbq. Contorno patate fritte</t>
+  </si>
+  <si>
+    <t>Buns brioches, lattuga, pomodoro, porchetta artigianale, emmental, cipolla caramellata. Contorno patate fritte</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di pollo 150gr, pomodoro, lattuga, salsa bbq. Contorno patate fritte</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di vitello 150gr, prosciutto crudo di Parma, rucola, bufala, crema di noci. Contorno patate fritte</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di scottona prussiana 150gr, funghi freschi, provola affumicata, grana, rucola. Contorno patate fritte</t>
+  </si>
+  <si>
+    <t>Pan pizza, hamburger vegano 120gr, lattuga, pomodoro. Contorno patate fritte</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di vitello 150gr, lattuga, pomodoro, porchetta artigianale, cipolla caramellata, salsa yogurt. Contorno patate fritte</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di salsiccia e vitello 150gr, mortadella, crema di pistacchio, bufala. Contorno patate fritte</t>
+  </si>
+  <si>
+    <t>Buns brioches, salmone, misticanza, zeste di lime, pomodori secchi, bufala. Contorno patate fritte</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di vitello, lattuga, pomodoro, cheddar, bacon, mayonese. Contorno patate fritte</t>
+  </si>
+  <si>
+    <t>Buns brioches, doppio hamburger 200gr, doppio bacon, doppio cheddar, doppia lattuga, doppio pomodoro, colata di salsa cheddar. Contorno patate fritte</t>
+  </si>
+  <si>
+    <t>Semifreddo cremoso a base di mandorle, morbido e vellutato, servito con colata di cioccolato</t>
+  </si>
+  <si>
+    <t>parfait.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soffice dorata, farcita con cremosa nutella. Granella di pistacchio </t>
+  </si>
+  <si>
     <r>
       <t>Mozzarella fior di latte, prosciutto</t>
     </r>
@@ -439,351 +1101,60 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> crudo di Parma, pomodorini, bufala stracciata, pesto di pistacchio, granela di pistacchio</t>
+      <t xml:space="preserve"> crudo di Parma, pomodorini, bufala stracciata, pesto di pistacchio, granella di pistacchio</t>
     </r>
   </si>
   <si>
-    <t>Bordo ripieno di ricotta e salsiccia, mozzarella di bufala D.O.P., friarielli, salsiccia, grana</t>
-  </si>
-  <si>
-    <t>Pomodoro a fette condito, mozzarella fior di latte, speck, ricotta, granella di pistacchio, grana</t>
-  </si>
-  <si>
-    <t>Mozzarella fior di latte, brie, speck, noci, miele</t>
-  </si>
-  <si>
-    <t>Bordo ripieno di ricotta e grana, mozzarella fior di latte, funghi, pomodorini, prosciutto crudo di Parma, grana</t>
-  </si>
-  <si>
-    <t>Mozzarella fior di latte, carciofi spinosi D.O.P., bignè di philadelphia, noci, grana</t>
-  </si>
-  <si>
-    <t>Bordo ripieno di philadelphia e pistacchio, mozzarella fior di latte, mortadella, pesto e granella di pistacchio, burrata</t>
-  </si>
-  <si>
-    <t>Scegli il condimento della pizza e dell'hamburger</t>
-  </si>
-  <si>
-    <t>Bordo ripieno con crema di pistacchio e philadelphia, mozzarella fior di latte, bresaola, bufala, pomodori secchi, granella di pistacchio</t>
-  </si>
-  <si>
-    <t>marinara.jpg</t>
-  </si>
-  <si>
-    <t>napoli.jpg</t>
-  </si>
-  <si>
-    <t>biancaneve.jpg</t>
-  </si>
-  <si>
-    <t>romana.jpg</t>
-  </si>
-  <si>
-    <t>capricciosa.jpg</t>
-  </si>
-  <si>
-    <t>diavola.jpg</t>
-  </si>
-  <si>
-    <t>sfiziosa.jpg</t>
-  </si>
-  <si>
-    <t>parmigiana.jpg</t>
-  </si>
-  <si>
-    <t>tonnara.jpg</t>
-  </si>
-  <si>
-    <t>vegetariana.jpg</t>
-  </si>
-  <si>
-    <t>schiacciata.jpg</t>
-  </si>
-  <si>
-    <t>porchettona.jpg</t>
-  </si>
-  <si>
-    <t>bresaolina.jpg</t>
-  </si>
-  <si>
-    <t>4_gusti.jpg</t>
-  </si>
-  <si>
-    <t>4_formaggi.jpg</t>
-  </si>
-  <si>
-    <t>la_sicula.jpg</t>
-  </si>
-  <si>
-    <t>american_chips.jpg</t>
-  </si>
-  <si>
-    <t>chicken_pizza.jpg</t>
-  </si>
-  <si>
-    <t>la_nazareno.jpg</t>
-  </si>
-  <si>
-    <t>la_parma.jpg</t>
-  </si>
-  <si>
-    <t>salsiccia_e_friarielli.jpg</t>
-  </si>
-  <si>
-    <t>brie_e_Noci.jpg</t>
-  </si>
-  <si>
-    <t>porcina.jpg</t>
-  </si>
-  <si>
-    <t>chloe.jpg</t>
-  </si>
-  <si>
-    <t>greta.jpg</t>
-  </si>
-  <si>
-    <t>deliziosa.jpg</t>
-  </si>
-  <si>
-    <t>la_solita.jpg</t>
-  </si>
-  <si>
-    <t>burrata_e_lime.jpg</t>
-  </si>
-  <si>
-    <t>4_spicchi.jpg</t>
-  </si>
-  <si>
-    <t>norvegese.jpg</t>
-  </si>
-  <si>
-    <t>pistacchiosa.jpg</t>
-  </si>
-  <si>
-    <t>gigi.jpg</t>
-  </si>
-  <si>
-    <t>quadrotta.jpg</t>
-  </si>
-  <si>
-    <t>sandra.jpg</t>
-  </si>
-  <si>
-    <t>marlena.jpg</t>
-  </si>
-  <si>
-    <t>bouquet.jpg</t>
-  </si>
-  <si>
-    <t>la_regina.jpg</t>
-  </si>
-  <si>
-    <t>duchessa.jpg</t>
-  </si>
-  <si>
-    <t>burger_pizza.jpg</t>
-  </si>
-  <si>
-    <t>bignè.jpg</t>
-  </si>
-  <si>
-    <t>Gigi Burger</t>
-  </si>
-  <si>
-    <t>Box Burger</t>
-  </si>
-  <si>
-    <t>Burger Bacon</t>
-  </si>
-  <si>
-    <t>Porchettone</t>
-  </si>
-  <si>
-    <t>Chicken Burger</t>
-  </si>
-  <si>
-    <t>Burger Pizza</t>
-  </si>
-  <si>
-    <t>Scotta Burger</t>
-  </si>
-  <si>
-    <t>Vegan Burger</t>
-  </si>
-  <si>
-    <t>Porchi Burger</t>
-  </si>
-  <si>
-    <t>Burger Pig</t>
-  </si>
-  <si>
-    <t>Salmone</t>
-  </si>
-  <si>
-    <t>Cheese Burger</t>
-  </si>
-  <si>
-    <t>Double Cheese Burger</t>
-  </si>
-  <si>
-    <t>Buns brioches, hamburger di vitello 200gr, pomodoro, cipolla caramellata, lattuga, porhcetta artigianale, emmental, fonduta di formaggi</t>
-  </si>
-  <si>
-    <t>Buns brioches, hamburger di vitello 150gr, pomodoro, lattuga, maionese, patatine fritte, 5 nuggets, coca cola</t>
-  </si>
-  <si>
-    <t>Buns brioches, hamburger di vitello 150gr, bacon croccante, cheddar, cipolla caramellata, salsa bbq</t>
-  </si>
-  <si>
-    <t>Buns brioches, lattuga, pomodoro, porchetta artigianale, emmental, cipolla caramellata</t>
-  </si>
-  <si>
-    <t>Buns brioches, hamburger di pollo 150gr, pomodoro, lattuga, salsa bbq</t>
-  </si>
-  <si>
-    <t>Buns brioches, hamburger di vitello 150gr, prosciutto crudo di Parma, rucola, bufala, crema di noci</t>
-  </si>
-  <si>
-    <t>Buns brioches, hamburger di scottona prussiana 150gr, funghi freschi, provola affumicata, grana, rucola</t>
-  </si>
-  <si>
-    <t>Pan pizza, hamburger vegano 120gr, lattuga, pomodoro</t>
-  </si>
-  <si>
-    <t>Buns brioches, hamburger di vitello 150gr, lattuga, pomodoro, porchetta artigianale, cipolla caramellata, salsa yogurt</t>
-  </si>
-  <si>
-    <t>Buns brioches, hamburger di salsiccia e vitello 150gr, mortadella, crema di pistacchio, bufala</t>
-  </si>
-  <si>
-    <t>Buns brioches, salmone, misticanza, zeste di lime, pomodori secchi, bufala</t>
-  </si>
-  <si>
-    <t>Buns brioches, hamburger di vitello, lattuga, pomodoro, cheddar, bacon, mayonese</t>
-  </si>
-  <si>
-    <t>Buns brioches, doppio hamburger 200gr, doppio bacon, doppio cheddar, doppia lattuga, doppio pomodoro, colata di salsa cheddar</t>
-  </si>
-  <si>
-    <t>gigi_burger.jpg</t>
-  </si>
-  <si>
-    <t>box_burger.jpg</t>
-  </si>
-  <si>
-    <t>burger_bacon.jpg</t>
-  </si>
-  <si>
-    <t>porchettone.jpg</t>
-  </si>
-  <si>
-    <t>chicken_burger.jpg</t>
-  </si>
-  <si>
-    <t>scotta_burger.jpg</t>
-  </si>
-  <si>
-    <t>vegan_burger.jpg</t>
-  </si>
-  <si>
-    <t>porchi_burger.jpg</t>
-  </si>
-  <si>
-    <t>burger_pig.jpg</t>
-  </si>
-  <si>
-    <t>salmone.jpg</t>
-  </si>
-  <si>
-    <t>cheese_burger.jpg</t>
-  </si>
-  <si>
-    <t>double_cheese_burger.jpg</t>
-  </si>
-  <si>
-    <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, prosciutto cotto scelto, carciofi, funghi, salame piccante, olive, wurstel, olio evo</t>
-  </si>
-  <si>
-    <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, prosciutto cotto scelto</t>
-  </si>
-  <si>
-    <t>Pomodoro san marzano D.O.P., acciughe, olio evo, basilico</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.50</t>
-  </si>
-  <si>
-    <t>9.00</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>8.50</t>
-  </si>
-  <si>
-    <t>10.50</t>
-  </si>
-  <si>
-    <t>11.50</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>13.50</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>12.50</t>
-  </si>
-  <si>
-    <t>14.00</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>Farina Kamut</t>
+    <t>Pan pizza con crema alle erbe, tartare di salmone, pomodorino, menta. (Gluten free su richiesta)</t>
+  </si>
+  <si>
+    <t>Ragù di cipolla, acciughe, pangrattato, caciocavallo, origano, olio evo. (Gluten free su richiesta)</t>
+  </si>
+  <si>
+    <t>Primosale, acciughe, cipolla, ricotta, pangrattato, caciocavallo, origano, olio evo. (Gluten free su richiesta)</t>
+  </si>
+  <si>
+    <t>Misto di frittura siciliana a fantasia dello chef</t>
+  </si>
+  <si>
+    <t>X2. Patatine,panelle,crocchè,arancinette</t>
+  </si>
+  <si>
+    <t>patatina,bacon croccante,salsa cheddar</t>
+  </si>
+  <si>
+    <t>Patatine, mortadella,pesto di pistacchio</t>
+  </si>
+  <si>
+    <t>Patatine, salsiccia, fonduta di formaggi misti</t>
+  </si>
+  <si>
+    <t>Patatine, porchetta, fonduta di formaggi misti</t>
+  </si>
+  <si>
+    <t>Prosciutto crudo, speck, cipolla scalogno</t>
+  </si>
+  <si>
+    <t>Crocchè di patata fresca ripiena di mozzarella, gorgonzola, speck, fonduta di formaggi</t>
+  </si>
+  <si>
+    <t>10pz Crocchette di pollo</t>
+  </si>
+  <si>
+    <t>4 pz Arancinette con riso, ragù di carne</t>
+  </si>
+  <si>
+    <t>Pan pizza,bruschetta classica.(Gluten free su richiesta)</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di vitello 150gr, pomodoro, lattuga, mayonese, patatine fritte, 5 nuggets, coca cola</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,6 +1177,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -857,7 +1235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -879,6 +1257,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1184,7 +1565,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD55"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,214 +1586,217 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>328</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>330</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>331</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>333</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>334</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>325</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>326</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>337</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>250</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1421,12 +1805,500 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B139F4-8144-46BE-9356-F32B8726FE3C}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EB8F64-3E7E-4885-86AC-537EC05DEBF2}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9015DF2A-0A06-4380-9DED-0895814E5B90}">
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD55"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,57 +2318,59 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+    </row>
     <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1549,12 +2423,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD111"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,35 +2449,35 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,69 +2485,69 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,475 +2555,195 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D29" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" t="s">
         <v>128</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D38" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D40" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D41" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2158,12 +2752,509 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E1EA08-AA69-494D-A958-9658348049EF}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE1916B-3FDC-4247-91F1-A7F41D3FADB7}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F583CCB0-9FDA-43AB-B301-F7E43A121E72}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,189 +3274,189 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>309</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>339</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>313</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>314</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>315</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>319</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2373,15 +3464,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D3"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D309EF-FEEE-463B-92D8-31DA770D1E78}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD54"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2390,77 +3484,126 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prodotti.xlsx
+++ b/prodotti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmont\Desktop\Development\PrivateRepo\burger-pizza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAD2085-F612-4286-8566-7FE0ACD21F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE6D8B8-2220-48DC-8209-70C55CC454DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/prodotti.xlsx
+++ b/prodotti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmont\Desktop\Development\PrivateRepo\burger-pizza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE6D8B8-2220-48DC-8209-70C55CC454DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4A02C4-4BF1-4F11-A323-4A021E1A31B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antipasti" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="285">
   <si>
     <t>Nome</t>
   </si>
@@ -114,46 +114,13 @@
     <t>Patatine classiche</t>
   </si>
   <si>
-    <t>bruschettone.jpg</t>
-  </si>
-  <si>
-    <t>crocchettone.jpg</t>
-  </si>
-  <si>
     <t>sushi_pizza.jpg</t>
   </si>
   <si>
-    <t>misto_burger_pizza.jpg</t>
-  </si>
-  <si>
-    <t>sfincionello_palermitano.jpg</t>
-  </si>
-  <si>
-    <t>sfincionello_bagherese.jpg</t>
-  </si>
-  <si>
-    <t>nuggets_artigianali.jpg</t>
-  </si>
-  <si>
     <t>arancinette_alla_carne.jpg</t>
   </si>
   <si>
-    <t>patatine_classiche.jpg</t>
-  </si>
-  <si>
-    <t>misto_siciliano.jpg</t>
-  </si>
-  <si>
-    <t>pata_bacon.jpg</t>
-  </si>
-  <si>
     <t>pata_pig.jpg</t>
-  </si>
-  <si>
-    <t>pata_salsiccia.jpg</t>
-  </si>
-  <si>
-    <t>pata_porchetta.jpg</t>
   </si>
   <si>
     <t>mangia_e_bevi_di_pizza.jpg</t>
@@ -397,126 +364,30 @@
     <t>Bordo ripieno con crema di pistacchio e philadelphia, mozzarella fior di latte, bresaola, bufala, pomodori secchi, granella di pistacchio</t>
   </si>
   <si>
-    <t>marinara.jpg</t>
-  </si>
-  <si>
-    <t>napoli.jpg</t>
-  </si>
-  <si>
-    <t>biancaneve.jpg</t>
-  </si>
-  <si>
     <t>romana.jpg</t>
   </si>
   <si>
     <t>capricciosa.jpg</t>
   </si>
   <si>
-    <t>diavola.jpg</t>
-  </si>
-  <si>
     <t>sfiziosa.jpg</t>
   </si>
   <si>
     <t>parmigiana.jpg</t>
   </si>
   <si>
-    <t>tonnara.jpg</t>
-  </si>
-  <si>
-    <t>vegetariana.jpg</t>
-  </si>
-  <si>
-    <t>schiacciata.jpg</t>
-  </si>
-  <si>
-    <t>porchettona.jpg</t>
-  </si>
-  <si>
-    <t>bresaolina.jpg</t>
-  </si>
-  <si>
-    <t>4_gusti.jpg</t>
-  </si>
-  <si>
-    <t>4_formaggi.jpg</t>
-  </si>
-  <si>
-    <t>la_sicula.jpg</t>
-  </si>
-  <si>
     <t>american_chips.jpg</t>
   </si>
   <si>
     <t>chicken_pizza.jpg</t>
   </si>
   <si>
-    <t>la_nazareno.jpg</t>
-  </si>
-  <si>
-    <t>la_parma.jpg</t>
-  </si>
-  <si>
-    <t>salsiccia_e_friarielli.jpg</t>
-  </si>
-  <si>
-    <t>brie_e_Noci.jpg</t>
-  </si>
-  <si>
-    <t>porcina.jpg</t>
-  </si>
-  <si>
-    <t>chloe.jpg</t>
-  </si>
-  <si>
-    <t>greta.jpg</t>
-  </si>
-  <si>
-    <t>deliziosa.jpg</t>
-  </si>
-  <si>
-    <t>la_solita.jpg</t>
-  </si>
-  <si>
-    <t>burrata_e_lime.jpg</t>
-  </si>
-  <si>
-    <t>4_spicchi.jpg</t>
-  </si>
-  <si>
-    <t>norvegese.jpg</t>
-  </si>
-  <si>
-    <t>pistacchiosa.jpg</t>
-  </si>
-  <si>
-    <t>gigi.jpg</t>
-  </si>
-  <si>
-    <t>quadrotta.jpg</t>
-  </si>
-  <si>
-    <t>sandra.jpg</t>
-  </si>
-  <si>
-    <t>marlena.jpg</t>
-  </si>
-  <si>
     <t>bouquet.jpg</t>
   </si>
   <si>
-    <t>la_regina.jpg</t>
-  </si>
-  <si>
     <t>duchessa.jpg</t>
   </si>
   <si>
-    <t>burger_pizza.jpg</t>
-  </si>
-  <si>
-    <t>bignè.jpg</t>
-  </si>
-  <si>
     <t>Gigi Burger</t>
   </si>
   <si>
@@ -559,39 +430,18 @@
     <t>gigi_burger.jpg</t>
   </si>
   <si>
-    <t>box_burger.jpg</t>
-  </si>
-  <si>
-    <t>burger_bacon.jpg</t>
-  </si>
-  <si>
     <t>porchettone.jpg</t>
   </si>
   <si>
-    <t>chicken_burger.jpg</t>
-  </si>
-  <si>
-    <t>scotta_burger.jpg</t>
-  </si>
-  <si>
-    <t>vegan_burger.jpg</t>
-  </si>
-  <si>
     <t>porchi_burger.jpg</t>
   </si>
   <si>
     <t>burger_pig.jpg</t>
   </si>
   <si>
-    <t>salmone.jpg</t>
-  </si>
-  <si>
     <t>cheese_burger.jpg</t>
   </si>
   <si>
-    <t>double_cheese_burger.jpg</t>
-  </si>
-  <si>
     <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, prosciutto cotto scelto, carciofi, funghi, salame piccante, olive, wurstel, olio evo</t>
   </si>
   <si>
@@ -826,9 +676,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>pollo_panato_fritto.jpg</t>
-  </si>
-  <si>
     <t>pollo_panato_alla_griglia.jpg</t>
   </si>
   <si>
@@ -838,16 +685,7 @@
     <t>spiedini_siciliani.jpg</t>
   </si>
   <si>
-    <t>tagliere_di_carne.jpg</t>
-  </si>
-  <si>
     <t>tagliata_di_scottona.jpg</t>
-  </si>
-  <si>
-    <t>arrosto_di_scottona.jpg</t>
-  </si>
-  <si>
-    <t>salsiccia.jpg</t>
   </si>
   <si>
     <t>Aperitivo siciliano</t>
@@ -1081,9 +919,6 @@
   </si>
   <si>
     <t>Semifreddo cremoso a base di mandorle, morbido e vellutato, servito con colata di cioccolato</t>
-  </si>
-  <si>
-    <t>parfait.jpg</t>
   </si>
   <si>
     <t xml:space="preserve"> Soffice dorata, farcita con cremosa nutella. Granella di pistacchio </t>
@@ -1565,7 +1400,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,13 +1429,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1608,13 +1440,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1622,13 +1451,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1636,13 +1462,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1650,13 +1476,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1664,13 +1487,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1678,13 +1498,13 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1692,13 +1512,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1706,13 +1526,10 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1720,13 +1537,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1734,13 +1548,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1748,13 +1559,10 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1762,13 +1570,10 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1776,13 +1581,13 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1790,13 +1595,10 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1810,7 +1612,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,58 +1633,55 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" t="s">
-        <v>322</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1917,242 +1716,242 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2164,7 +1963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B139F4-8144-46BE-9356-F32B8726FE3C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -2186,35 +1985,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2248,44 +2047,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2326,10 +2125,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2337,10 +2136,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2348,10 +2147,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2359,10 +2158,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2227,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2454,30 +2253,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,10 +2278,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -2496,58 +2289,52 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2555,196 +2342,167 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D19" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>128</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2757,7 +2515,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2778,58 +2536,46 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2837,27 +2583,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2870,7 +2610,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2894,198 +2634,163 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>144</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
         <v>112</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3120,128 +2825,128 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3253,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3279,184 +2984,160 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3469,11 +3150,12 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3493,114 +3175,102 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" t="s">
-        <v>260</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D8" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" t="s">
-        <v>267</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/prodotti.xlsx
+++ b/prodotti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmont\Desktop\Development\PrivateRepo\burger-pizza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4A02C4-4BF1-4F11-A323-4A021E1A31B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDD349F-EEE4-49F0-B93E-83A3E4699665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5475" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antipasti" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="272">
   <si>
     <t>Nome</t>
   </si>
@@ -379,9 +379,6 @@
     <t>american_chips.jpg</t>
   </si>
   <si>
-    <t>chicken_pizza.jpg</t>
-  </si>
-  <si>
     <t>bouquet.jpg</t>
   </si>
   <si>
@@ -694,22 +691,13 @@
     <t>28.00</t>
   </si>
   <si>
-    <t>aperitivo_siciliano.jpg</t>
-  </si>
-  <si>
     <t>AperiBurger</t>
   </si>
   <si>
     <t>30.00</t>
   </si>
   <si>
-    <t>aperiburger.jpg</t>
-  </si>
-  <si>
     <t>AperiPorchetta</t>
-  </si>
-  <si>
-    <t>aperiPorchetta.jpg</t>
   </si>
   <si>
     <r>
@@ -776,33 +764,6 @@
   </si>
   <si>
     <t>Panino greco</t>
-  </si>
-  <si>
-    <t>classico.jpg</t>
-  </si>
-  <si>
-    <t>priolino.jpg</t>
-  </si>
-  <si>
-    <t>appetitoso.jpg</t>
-  </si>
-  <si>
-    <t>goloso.jpg</t>
-  </si>
-  <si>
-    <t>sempliciotto.jpg</t>
-  </si>
-  <si>
-    <t>parigino.jpg</t>
-  </si>
-  <si>
-    <t>fagottino.jpg</t>
-  </si>
-  <si>
-    <t>pizza_cannolo.jpg</t>
-  </si>
-  <si>
-    <t>panino_greco.jpg</t>
   </si>
   <si>
     <t>Pomodoro San Marzano D.O.P., mozzarella fior di latte, prosciutto cotto scelto</t>
@@ -1429,10 +1390,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1440,10 +1401,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1451,10 +1412,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1462,10 +1423,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -1476,10 +1437,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,10 +1448,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,10 +1459,10 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -1512,10 +1473,10 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -1526,10 +1487,10 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,10 +1498,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1548,10 +1509,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,10 +1520,10 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1570,10 +1531,10 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1581,10 +1542,10 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -1595,10 +1556,10 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1633,55 +1594,55 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" t="s">
         <v>196</v>
-      </c>
-      <c r="B3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
         <v>194</v>
-      </c>
-      <c r="B4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1716,242 +1677,242 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
         <v>160</v>
       </c>
-      <c r="B2" t="s">
-        <v>161</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" t="s">
         <v>177</v>
       </c>
-      <c r="B17" t="s">
-        <v>178</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" t="s">
         <v>179</v>
       </c>
-      <c r="B20" t="s">
-        <v>180</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +1924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B139F4-8144-46BE-9356-F32B8726FE3C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -1985,35 +1946,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +1987,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,44 +2008,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" t="s">
         <v>214</v>
-      </c>
-      <c r="B2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2125,10 +2077,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2136,10 +2088,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2147,10 +2099,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2158,10 +2110,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2226,12 +2178,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="61.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="7"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
@@ -2259,7 +2212,7 @@
         <v>69</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2267,10 +2220,10 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2281,7 +2234,7 @@
         <v>70</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -2295,7 +2248,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2303,10 +2256,10 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
         <v>106</v>
@@ -2320,7 +2273,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2328,10 +2281,10 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
         <v>107</v>
@@ -2345,7 +2298,7 @@
         <v>73</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2356,7 +2309,7 @@
         <v>74</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
@@ -2370,7 +2323,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -2384,7 +2337,7 @@
         <v>76</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2395,7 +2348,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2406,7 +2359,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2417,7 +2370,7 @@
         <v>79</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2428,7 +2381,7 @@
         <v>81</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
         <v>110</v>
@@ -2442,10 +2395,7 @@
         <v>80</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2456,7 +2406,7 @@
         <v>82</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2467,7 +2417,7 @@
         <v>83</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,7 +2428,7 @@
         <v>84</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2489,7 +2439,7 @@
         <v>85</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2500,7 +2450,7 @@
         <v>86</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -2542,7 +2492,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2553,7 +2503,7 @@
         <v>88</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2564,7 +2514,7 @@
         <v>89</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2575,7 +2525,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2586,7 +2536,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2597,7 +2547,7 @@
         <v>92</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2640,7 +2590,7 @@
         <v>93</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,7 +2601,7 @@
         <v>94</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="8"/>
     </row>
@@ -2663,7 +2613,7 @@
         <v>95</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2674,7 +2624,7 @@
         <v>96</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2685,7 +2635,7 @@
         <v>97</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2693,10 +2643,10 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2707,7 +2657,7 @@
         <v>98</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2718,7 +2668,7 @@
         <v>99</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2729,7 +2679,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2740,10 +2690,10 @@
         <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2754,7 +2704,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2765,10 +2715,10 @@
         <v>103</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2779,7 +2729,7 @@
         <v>104</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2790,7 +2740,7 @@
         <v>105</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2804,7 +2754,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,128 +2775,101 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" t="s">
-        <v>236</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" t="s">
-        <v>242</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2984,160 +2907,160 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3175,102 +3098,102 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/prodotti.xlsx
+++ b/prodotti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmont\Desktop\Development\PrivateRepo\burger-pizza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDD349F-EEE4-49F0-B93E-83A3E4699665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A808B46-A4C7-4352-85F4-001238B28EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5475" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/prodotti.xlsx
+++ b/prodotti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmont\Desktop\Development\PrivateRepo\burger-pizza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A808B46-A4C7-4352-85F4-001238B28EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122D05E2-84F3-4E8B-B486-3F2C35D5FAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5475" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Immagine</t>
   </si>
   <si>
-    <t>margherita.jpg</t>
-  </si>
-  <si>
     <t>Kamut</t>
   </si>
   <si>
@@ -112,18 +109,6 @@
   </si>
   <si>
     <t>Patatine classiche</t>
-  </si>
-  <si>
-    <t>sushi_pizza.jpg</t>
-  </si>
-  <si>
-    <t>arancinette_alla_carne.jpg</t>
-  </si>
-  <si>
-    <t>pata_pig.jpg</t>
-  </si>
-  <si>
-    <t>mangia_e_bevi_di_pizza.jpg</t>
   </si>
   <si>
     <t>Biancaneve</t>
@@ -364,27 +349,6 @@
     <t>Bordo ripieno con crema di pistacchio e philadelphia, mozzarella fior di latte, bresaola, bufala, pomodori secchi, granella di pistacchio</t>
   </si>
   <si>
-    <t>romana.jpg</t>
-  </si>
-  <si>
-    <t>capricciosa.jpg</t>
-  </si>
-  <si>
-    <t>sfiziosa.jpg</t>
-  </si>
-  <si>
-    <t>parmigiana.jpg</t>
-  </si>
-  <si>
-    <t>american_chips.jpg</t>
-  </si>
-  <si>
-    <t>bouquet.jpg</t>
-  </si>
-  <si>
-    <t>duchessa.jpg</t>
-  </si>
-  <si>
     <t>Gigi Burger</t>
   </si>
   <si>
@@ -424,21 +388,6 @@
     <t>Double Cheese Burger</t>
   </si>
   <si>
-    <t>gigi_burger.jpg</t>
-  </si>
-  <si>
-    <t>porchettone.jpg</t>
-  </si>
-  <si>
-    <t>porchi_burger.jpg</t>
-  </si>
-  <si>
-    <t>burger_pig.jpg</t>
-  </si>
-  <si>
-    <t>cheese_burger.jpg</t>
-  </si>
-  <si>
     <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, prosciutto cotto scelto, carciofi, funghi, salame piccante, olive, wurstel, olio evo</t>
   </si>
   <si>
@@ -622,21 +571,12 @@
     <t>1.50</t>
   </si>
   <si>
-    <t>tortino_cuore_caldo.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Flauto </t>
   </si>
   <si>
-    <t>flauto.jpg</t>
-  </si>
-  <si>
     <t>Zeppola</t>
   </si>
   <si>
-    <t>zeppola.jpg</t>
-  </si>
-  <si>
     <t>Dolce dal cuore morbido e fondente, servito caldo</t>
   </si>
   <si>
@@ -671,18 +611,6 @@
   </si>
   <si>
     <t>20.00</t>
-  </si>
-  <si>
-    <t>pollo_panato_alla_griglia.jpg</t>
-  </si>
-  <si>
-    <t>spiedini_al_pistacchio.jpg</t>
-  </si>
-  <si>
-    <t>spiedini_siciliani.jpg</t>
-  </si>
-  <si>
-    <t>tagliata_di_scottona.jpg</t>
   </si>
   <si>
     <t>Aperitivo siciliano</t>
@@ -944,6 +872,78 @@
   </si>
   <si>
     <t>Buns brioches, hamburger di vitello 150gr, pomodoro, lattuga, mayonese, patatine fritte, 5 nuggets, coca cola</t>
+  </si>
+  <si>
+    <t>margherita.webp</t>
+  </si>
+  <si>
+    <t>romana.webp</t>
+  </si>
+  <si>
+    <t>capricciosa.webp</t>
+  </si>
+  <si>
+    <t>sfiziosa.webp</t>
+  </si>
+  <si>
+    <t>parmigiana.webp</t>
+  </si>
+  <si>
+    <t>american_chips.webp</t>
+  </si>
+  <si>
+    <t>pata_pig.webp</t>
+  </si>
+  <si>
+    <t>mangia_e_bevi_di_pizza.webp</t>
+  </si>
+  <si>
+    <t>sushi_pizza.webp</t>
+  </si>
+  <si>
+    <t>arancinette_alla_carne.webp</t>
+  </si>
+  <si>
+    <t>bouquet.webp</t>
+  </si>
+  <si>
+    <t>duchessa.webp</t>
+  </si>
+  <si>
+    <t>gigi_burger.webp</t>
+  </si>
+  <si>
+    <t>porchettone.webp</t>
+  </si>
+  <si>
+    <t>porchi_burger.webp</t>
+  </si>
+  <si>
+    <t>burger_pig.webp</t>
+  </si>
+  <si>
+    <t>cheese_burger.webp</t>
+  </si>
+  <si>
+    <t>pollo_panato_alla_griglia.webp</t>
+  </si>
+  <si>
+    <t>spiedini_al_pistacchio.webp</t>
+  </si>
+  <si>
+    <t>spiedini_siciliani.webp</t>
+  </si>
+  <si>
+    <t>tagliata_di_scottona.webp</t>
+  </si>
+  <si>
+    <t>tortino_cuore_caldo.webp</t>
+  </si>
+  <si>
+    <t>zeppola.webp</t>
+  </si>
+  <si>
+    <t>flauto.webp</t>
   </si>
 </sst>
 </file>
@@ -1387,179 +1387,179 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1594,55 +1594,55 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1677,242 +1677,242 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1946,35 +1946,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2008,35 +2008,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
         <v>217</v>
       </c>
-      <c r="B4" t="s">
-        <v>241</v>
-      </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2074,46 +2074,46 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2179,7 +2179,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,24 +2206,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2231,63 +2231,63 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2295,162 +2295,162 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -2486,46 +2486,46 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2533,21 +2533,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2584,163 +2584,163 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2775,101 +2775,101 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2907,160 +2907,160 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3098,102 +3098,102 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/prodotti.xlsx
+++ b/prodotti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmont\Desktop\Development\PrivateRepo\burger-pizza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122D05E2-84F3-4E8B-B486-3F2C35D5FAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1124B25F-23E3-448B-A0D1-152067206E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5475" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
